--- a/13_Campus Channel/2_Lives Septembre/1_1Tableau lives.xlsx
+++ b/13_Campus Channel/2_Lives Septembre/1_1Tableau lives.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>Nom du programme</t>
   </si>
@@ -882,7 +882,7 @@
   <dimension ref="A1:IV50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1294,7 +1294,9 @@
       <c r="B33" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
     </row>
@@ -1305,7 +1307,9 @@
       <c r="B34" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>

--- a/13_Campus Channel/2_Lives Septembre/1_1Tableau lives.xlsx
+++ b/13_Campus Channel/2_Lives Septembre/1_1Tableau lives.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="24900" windowHeight="13100"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t>Nom du programme</t>
   </si>
@@ -267,10 +267,16 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Anglais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anglais </t>
+    <t>AUDENCIA Nantes Executive MBA</t>
+  </si>
+  <si>
+    <t>Octobre</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>http://www.campus-channel.com/audencia-nantes-executive-mba.html</t>
   </si>
 </sst>
 </file>
@@ -294,7 +300,7 @@
       <name val="Trebuchet MS Bold"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,8 +325,26 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -433,13 +457,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -479,6 +516,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV50"/>
+  <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -911,7 +964,9 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
@@ -922,7 +977,9 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
@@ -933,7 +990,9 @@
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
@@ -944,7 +1003,9 @@
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="10"/>
     </row>
@@ -955,7 +1016,9 @@
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
@@ -992,7 +1055,9 @@
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
     </row>
@@ -1003,7 +1068,9 @@
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
     </row>
@@ -1014,8 +1081,10 @@
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="20"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1">
@@ -1025,7 +1094,9 @@
       <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
@@ -1036,7 +1107,9 @@
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
     </row>
@@ -1060,10 +1133,10 @@
       <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="5"/>
+      <c r="C15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="20"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
@@ -1112,10 +1185,10 @@
       <c r="B19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="5"/>
+      <c r="C19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="20"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
@@ -1190,10 +1263,10 @@
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="5"/>
+      <c r="C25" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="20"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
@@ -1262,14 +1335,14 @@
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
@@ -1320,7 +1393,9 @@
       <c r="B35" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
     </row>
@@ -1331,10 +1406,10 @@
       <c r="B36" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="5"/>
+      <c r="C36" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="20"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1">
@@ -1344,8 +1419,10 @@
       <c r="B37" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="5"/>
+      <c r="C37" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="20"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1">
@@ -1355,18 +1432,22 @@
       <c r="B38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="5"/>
+      <c r="C38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="20"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="17" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
     </row>
@@ -1377,10 +1458,10 @@
       <c r="B40" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="5"/>
+      <c r="C40" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="20"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="17" customHeight="1">
@@ -1391,16 +1472,24 @@
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" ht="17" customHeight="1">
-      <c r="A42" s="15"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="17"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="17" customHeight="1">
-      <c r="A43" s="15"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="A43" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
@@ -1452,6 +1541,13 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" ht="17" customHeight="1">
+      <c r="A51" s="15"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
